--- a/_CONCAT_DOWNER_Tasman_ver2.xlsx
+++ b/_CONCAT_DOWNER_Tasman_ver2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D0C440-F26A-4770-91ED-DD6904DAC2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96073CA-4CFD-447A-B213-1241B0C91A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="210" windowWidth="29280" windowHeight="19920" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="3735" yWindow="1575" windowWidth="26685" windowHeight="17625" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,10 +55,6 @@
     </bk>
   </cellMetadata>
 </metadata>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,13 +438,14 @@
     <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="3.140625" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="17" max="17" width="25.85546875" customWidth="1"/>
-    <col min="18" max="19" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
     <col min="21" max="21" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
